--- a/all_tweets.xlsx
+++ b/all_tweets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ml-project\machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E0A1B7-B7F9-4FA3-A071-1B059AC8143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF56802-91DA-4F7B-9DA5-F6C22D396B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="1032">
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -9004,6 +9001,9 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -9204,7 +9204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -9252,6 +9252,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -13250,9 +13251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="63" workbookViewId="0">
-      <selection activeCell="D291" sqref="D291"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -13267,47 +13266,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="35" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="34" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="6">
         <v>1418</v>
@@ -13319,27 +13318,27 @@
         <v>116</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="2">
         <v>134</v>
@@ -13348,27 +13347,27 @@
         <v>1014</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="6">
         <v>1283</v>
@@ -13377,24 +13376,24 @@
         <v>2488</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="2">
         <v>8251</v>
@@ -13406,24 +13405,24 @@
         <v>1476</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="6">
         <v>7866</v>
@@ -13435,24 +13434,24 @@
         <v>2971</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="2">
         <v>796</v>
@@ -13464,24 +13463,24 @@
         <v>198</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="E8" s="6">
         <v>8795</v>
@@ -13493,24 +13492,24 @@
         <v>942</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E9" s="2">
         <v>595</v>
@@ -13522,24 +13521,24 @@
         <v>261</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E10" s="6">
         <v>2371</v>
@@ -13551,24 +13550,24 @@
         <v>417</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2">
         <v>1348</v>
@@ -13580,24 +13579,24 @@
         <v>345</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="E12" s="6">
         <v>4596</v>
@@ -13609,24 +13608,24 @@
         <v>1355</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E13" s="2">
         <v>202</v>
@@ -13638,24 +13637,24 @@
         <v>90</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="6">
         <v>295</v>
@@ -13667,27 +13666,27 @@
         <v>140</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F15" s="2">
         <v>239</v>
@@ -13696,24 +13695,24 @@
         <v>5145</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="E16" s="6">
         <v>3902</v>
@@ -13725,24 +13724,24 @@
         <v>1515</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E17" s="2">
         <v>8097</v>
@@ -13754,24 +13753,24 @@
         <v>2633</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="E18" s="6">
         <v>1234</v>
@@ -13783,24 +13782,24 @@
         <v>872</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -13815,21 +13814,21 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -13844,21 +13843,21 @@
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2">
         <v>722</v>
@@ -13873,21 +13872,21 @@
         <v>9828</v>
       </c>
       <c r="I21" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="6">
         <v>16</v>
@@ -13902,21 +13901,21 @@
         <v>382</v>
       </c>
       <c r="I22" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2">
         <v>31</v>
@@ -13931,21 +13930,21 @@
         <v>4753</v>
       </c>
       <c r="I23" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="6">
         <v>242</v>
@@ -13960,21 +13959,21 @@
         <v>3074</v>
       </c>
       <c r="I24" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E25" s="2">
         <v>236</v>
@@ -13989,21 +13988,21 @@
         <v>5376</v>
       </c>
       <c r="I25" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="E26" s="6">
         <v>120</v>
@@ -14018,21 +14017,21 @@
         <v>2220</v>
       </c>
       <c r="I26" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2">
         <v>8356</v>
@@ -14044,24 +14043,24 @@
         <v>1477</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I27" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="D28" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="6">
         <v>220</v>
@@ -14073,24 +14072,24 @@
         <v>72</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.95" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2">
         <v>61</v>
@@ -14105,21 +14104,21 @@
         <v>632</v>
       </c>
       <c r="I29" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="E30" s="6">
         <v>9</v>
@@ -14134,21 +14133,21 @@
         <v>211</v>
       </c>
       <c r="I30" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="2">
         <v>117</v>
@@ -14163,21 +14162,21 @@
         <v>5923</v>
       </c>
       <c r="I31" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="6">
         <v>1020</v>
@@ -14189,24 +14188,24 @@
         <v>194</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I32" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="E33" s="2">
         <v>11</v>
@@ -14221,21 +14220,21 @@
         <v>308</v>
       </c>
       <c r="I33" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="6">
         <v>142</v>
@@ -14250,21 +14249,21 @@
         <v>4011</v>
       </c>
       <c r="I34" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E35" s="2">
         <v>882</v>
@@ -14276,24 +14275,24 @@
         <v>136</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I35" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="E36" s="6">
         <v>23</v>
@@ -14308,27 +14307,27 @@
         <v>404</v>
       </c>
       <c r="I36" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" s="2">
         <v>33</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G37" s="2">
         <v>7</v>
@@ -14337,21 +14336,21 @@
         <v>226</v>
       </c>
       <c r="I37" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="6">
         <v>2653</v>
@@ -14363,30 +14362,30 @@
         <v>662</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I38" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2">
         <v>66</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -14395,21 +14394,21 @@
         <v>5673</v>
       </c>
       <c r="I39" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E40" s="6">
         <v>193</v>
@@ -14424,21 +14423,21 @@
         <v>1884</v>
       </c>
       <c r="I40" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2">
         <v>380</v>
@@ -14450,30 +14449,30 @@
         <v>218</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I41" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="E42" s="6">
         <v>7</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G42" s="6">
         <v>2</v>
@@ -14482,21 +14481,21 @@
         <v>60</v>
       </c>
       <c r="I42" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2">
         <v>7608</v>
@@ -14508,24 +14507,24 @@
         <v>599</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I43" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="D44" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E44" s="6">
         <v>185</v>
@@ -14537,24 +14536,24 @@
         <v>4</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I44" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2">
         <v>403</v>
@@ -14569,50 +14568,50 @@
         <v>8031</v>
       </c>
       <c r="I45" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="C46" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I46" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2">
         <v>428</v>
@@ -14627,21 +14626,21 @@
         <v>7374</v>
       </c>
       <c r="I47" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="E48" s="6">
         <v>106</v>
@@ -14656,21 +14655,21 @@
         <v>1506</v>
       </c>
       <c r="I48" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -14685,21 +14684,21 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="D50" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E50" s="6">
         <v>0</v>
@@ -14714,21 +14713,21 @@
         <v>8</v>
       </c>
       <c r="I50" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" s="2">
         <v>20</v>
@@ -14743,21 +14742,21 @@
         <v>116</v>
       </c>
       <c r="I51" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="D52" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E52" s="6">
         <v>0</v>
@@ -14772,21 +14771,21 @@
         <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="C53" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -14801,21 +14800,21 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="C54" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="D54" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54" s="6">
         <v>0</v>
@@ -14830,21 +14829,21 @@
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="C55" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -14859,21 +14858,21 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E56" s="6">
         <v>0</v>
@@ -14888,21 +14887,21 @@
         <v>11</v>
       </c>
       <c r="I56" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="C57" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="D57" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -14917,21 +14916,21 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="D58" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E58" s="6">
         <v>23</v>
@@ -14946,21 +14945,21 @@
         <v>757</v>
       </c>
       <c r="I58" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -14975,21 +14974,21 @@
         <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.8">
       <c r="A60" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B60" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>232</v>
-      </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E60" s="17">
         <v>32</v>
@@ -15004,21 +15003,21 @@
         <v>3641</v>
       </c>
       <c r="I60" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.8">
       <c r="A61" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B61" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="D61" t="s">
         <v>234</v>
-      </c>
-      <c r="D61" t="s">
-        <v>235</v>
       </c>
       <c r="E61">
         <v>1205</v>
@@ -15030,24 +15029,24 @@
         <v>592</v>
       </c>
       <c r="H61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.8">
       <c r="A62" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B62" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" t="s">
         <v>237</v>
       </c>
-      <c r="C62" t="s">
-        <v>238</v>
-      </c>
       <c r="D62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E62">
         <v>187</v>
@@ -15059,24 +15058,24 @@
         <v>71</v>
       </c>
       <c r="H62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I62" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.8">
       <c r="A63" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B63" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" t="s">
         <v>240</v>
       </c>
-      <c r="C63" t="s">
-        <v>241</v>
-      </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63">
         <v>55</v>
@@ -15091,21 +15090,21 @@
         <v>4476</v>
       </c>
       <c r="I63" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.8">
       <c r="A64" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B64" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C64" t="s">
         <v>242</v>
       </c>
-      <c r="C64" t="s">
-        <v>243</v>
-      </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64">
         <v>337</v>
@@ -15117,24 +15116,24 @@
         <v>337</v>
       </c>
       <c r="H64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I64" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.8">
       <c r="A65" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B65" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" t="s">
         <v>245</v>
       </c>
-      <c r="C65" t="s">
-        <v>246</v>
-      </c>
       <c r="D65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E65">
         <v>122</v>
@@ -15146,24 +15145,24 @@
         <v>28</v>
       </c>
       <c r="H65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I65" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.8">
       <c r="A66" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B66" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" t="s">
         <v>248</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>249</v>
-      </c>
-      <c r="D66" t="s">
-        <v>250</v>
       </c>
       <c r="E66">
         <v>419</v>
@@ -15175,24 +15174,24 @@
         <v>70</v>
       </c>
       <c r="H66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I66" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.8">
       <c r="A67" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B67" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" t="s">
         <v>252</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>253</v>
-      </c>
-      <c r="D67" t="s">
-        <v>254</v>
       </c>
       <c r="E67">
         <v>127</v>
@@ -15207,24 +15206,24 @@
         <v>1353</v>
       </c>
       <c r="I67" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.8">
       <c r="A68" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B68" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" t="s">
         <v>255</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
         <v>256</v>
-      </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" t="s">
-        <v>257</v>
       </c>
       <c r="F68">
         <v>3289</v>
@@ -15233,24 +15232,24 @@
         <v>3790</v>
       </c>
       <c r="H68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I68" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B69" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" t="s">
         <v>259</v>
       </c>
-      <c r="C69" t="s">
-        <v>260</v>
-      </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E69">
         <v>128</v>
@@ -15265,21 +15264,21 @@
         <v>7782</v>
       </c>
       <c r="I69" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.8">
       <c r="A70" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B70" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C70" t="s">
         <v>261</v>
       </c>
-      <c r="C70" t="s">
-        <v>262</v>
-      </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E70">
         <v>43</v>
@@ -15294,21 +15293,21 @@
         <v>1996</v>
       </c>
       <c r="I70" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.8">
       <c r="A71" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B71" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" t="s">
         <v>263</v>
       </c>
-      <c r="C71" t="s">
-        <v>264</v>
-      </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E71">
         <v>12</v>
@@ -15323,21 +15322,21 @@
         <v>193</v>
       </c>
       <c r="I71" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B72" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" t="s">
         <v>265</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>266</v>
-      </c>
-      <c r="D72" t="s">
-        <v>267</v>
       </c>
       <c r="E72">
         <v>54</v>
@@ -15352,21 +15351,21 @@
         <v>3997</v>
       </c>
       <c r="I72" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.8">
       <c r="A73" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B73" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C73" t="s">
         <v>268</v>
       </c>
-      <c r="C73" t="s">
-        <v>269</v>
-      </c>
       <c r="D73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E73">
         <v>22</v>
@@ -15381,21 +15380,21 @@
         <v>2064</v>
       </c>
       <c r="I73" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.8">
       <c r="A74" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B74" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" t="s">
         <v>270</v>
       </c>
-      <c r="C74" t="s">
-        <v>271</v>
-      </c>
       <c r="D74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E74">
         <v>540</v>
@@ -15407,24 +15406,24 @@
         <v>225</v>
       </c>
       <c r="H74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I74" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.8">
       <c r="A75" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B75" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C75" t="s">
         <v>273</v>
       </c>
-      <c r="C75" t="s">
-        <v>274</v>
-      </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E75">
         <v>390</v>
@@ -15436,24 +15435,24 @@
         <v>59</v>
       </c>
       <c r="H75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I75" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.8">
       <c r="A76" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B76" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" t="s">
         <v>276</v>
       </c>
-      <c r="C76" t="s">
-        <v>277</v>
-      </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E76">
         <v>13</v>
@@ -15468,21 +15467,21 @@
         <v>2682</v>
       </c>
       <c r="I76" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="19.8">
       <c r="A77" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B77" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" t="s">
         <v>278</v>
       </c>
-      <c r="C77" t="s">
-        <v>279</v>
-      </c>
       <c r="D77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E77">
         <v>15</v>
@@ -15497,24 +15496,24 @@
         <v>366</v>
       </c>
       <c r="I77" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.2" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B78" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C78" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" t="s">
         <v>280</v>
-      </c>
-      <c r="C78" t="s">
-        <v>256</v>
-      </c>
-      <c r="D78" t="s">
-        <v>267</v>
-      </c>
-      <c r="E78" t="s">
-        <v>281</v>
       </c>
       <c r="F78">
         <v>873</v>
@@ -15523,24 +15522,24 @@
         <v>2407</v>
       </c>
       <c r="H78" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I78" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.8">
       <c r="A79" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B79" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" t="s">
         <v>283</v>
       </c>
-      <c r="C79" t="s">
-        <v>284</v>
-      </c>
       <c r="D79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E79">
         <v>7</v>
@@ -15555,27 +15554,27 @@
         <v>415</v>
       </c>
       <c r="I79" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B80" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" t="s">
         <v>285</v>
       </c>
-      <c r="C80" t="s">
-        <v>286</v>
-      </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E80">
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G80">
         <v>45</v>
@@ -15584,21 +15583,21 @@
         <v>295</v>
       </c>
       <c r="I80" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.8">
       <c r="A81" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B81" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C81" t="s">
         <v>287</v>
       </c>
-      <c r="C81" t="s">
-        <v>288</v>
-      </c>
       <c r="D81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E81">
         <v>137</v>
@@ -15613,50 +15612,50 @@
         <v>9215</v>
       </c>
       <c r="I81" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.8">
       <c r="A82" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B82" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C82" t="s">
         <v>289</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>290</v>
-      </c>
-      <c r="D82" t="s">
-        <v>291</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I82" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.8">
       <c r="A83" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B83" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C83" t="s">
         <v>292</v>
       </c>
-      <c r="C83" t="s">
-        <v>293</v>
-      </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E83">
         <v>24</v>
@@ -15671,21 +15670,21 @@
         <v>356</v>
       </c>
       <c r="I83" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.8">
       <c r="A84" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B84" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C84" t="s">
         <v>294</v>
       </c>
-      <c r="C84" t="s">
-        <v>295</v>
-      </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E84">
         <v>29</v>
@@ -15700,21 +15699,21 @@
         <v>971</v>
       </c>
       <c r="I84" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.8">
       <c r="A85" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B85" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C85" t="s">
         <v>296</v>
       </c>
-      <c r="C85" t="s">
-        <v>297</v>
-      </c>
       <c r="D85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E85">
         <v>10</v>
@@ -15729,21 +15728,21 @@
         <v>1442</v>
       </c>
       <c r="I85" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.8">
       <c r="A86" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B86" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C86" t="s">
         <v>298</v>
       </c>
-      <c r="C86" t="s">
-        <v>299</v>
-      </c>
       <c r="D86" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E86">
         <v>197</v>
@@ -15758,21 +15757,21 @@
         <v>6625</v>
       </c>
       <c r="I86" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.8">
       <c r="A87" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B87" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C87" t="s">
         <v>300</v>
       </c>
-      <c r="C87" t="s">
-        <v>301</v>
-      </c>
       <c r="D87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E87">
         <v>1266</v>
@@ -15784,24 +15783,24 @@
         <v>119</v>
       </c>
       <c r="H87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I87" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.8">
       <c r="A88" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B88" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C88" t="s">
         <v>303</v>
       </c>
-      <c r="C88" t="s">
-        <v>304</v>
-      </c>
       <c r="D88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E88">
         <v>41</v>
@@ -15816,27 +15815,27 @@
         <v>1443</v>
       </c>
       <c r="I88" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.8">
       <c r="A89" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B89" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" t="s">
         <v>231</v>
       </c>
-      <c r="C89" t="s">
-        <v>232</v>
-      </c>
       <c r="D89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E89">
         <v>35</v>
       </c>
       <c r="F89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G89">
         <v>13</v>
@@ -15845,21 +15844,21 @@
         <v>3711</v>
       </c>
       <c r="I89" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.8">
       <c r="A90" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B90" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C90" t="s">
         <v>305</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>306</v>
-      </c>
-      <c r="D90" t="s">
-        <v>307</v>
       </c>
       <c r="E90">
         <v>23</v>
@@ -15871,24 +15870,24 @@
         <v>27</v>
       </c>
       <c r="H90" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I90" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.8">
       <c r="A91" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B91" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C91" t="s">
         <v>309</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>310</v>
-      </c>
-      <c r="D91" t="s">
-        <v>311</v>
       </c>
       <c r="E91">
         <v>8</v>
@@ -15903,21 +15902,21 @@
         <v>116</v>
       </c>
       <c r="I91" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.8">
       <c r="A92" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B92" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C92" t="s">
         <v>312</v>
       </c>
-      <c r="C92" t="s">
-        <v>313</v>
-      </c>
       <c r="D92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E92">
         <v>5</v>
@@ -15932,27 +15931,27 @@
         <v>591</v>
       </c>
       <c r="I92" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.8">
       <c r="A93" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B93" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C93" t="s">
         <v>314</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>315</v>
-      </c>
-      <c r="D93" t="s">
-        <v>316</v>
       </c>
       <c r="E93">
         <v>3</v>
       </c>
       <c r="F93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -15961,21 +15960,21 @@
         <v>28</v>
       </c>
       <c r="I93" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.8">
       <c r="A94" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B94" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C94" t="s">
         <v>317</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>318</v>
-      </c>
-      <c r="D94" t="s">
-        <v>319</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -15990,21 +15989,21 @@
         <v>43</v>
       </c>
       <c r="I94" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.8">
       <c r="A95" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" t="s">
+        <v>319</v>
+      </c>
+      <c r="D95" t="s">
         <v>320</v>
-      </c>
-      <c r="D95" t="s">
-        <v>321</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -16019,21 +16018,21 @@
         <v>456</v>
       </c>
       <c r="I95" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.8">
       <c r="A96" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B96" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C96" t="s">
         <v>322</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>323</v>
-      </c>
-      <c r="D96" t="s">
-        <v>324</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -16042,24 +16041,24 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I96" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.8">
       <c r="A97" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C97" t="s">
         <v>325</v>
       </c>
-      <c r="C97" t="s">
-        <v>326</v>
-      </c>
       <c r="D97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E97">
         <v>126</v>
@@ -16074,21 +16073,21 @@
         <v>7503</v>
       </c>
       <c r="I97" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.8">
       <c r="A98" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B98" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C98" t="s">
         <v>327</v>
       </c>
-      <c r="C98" t="s">
-        <v>328</v>
-      </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E98">
         <v>27</v>
@@ -16100,24 +16099,24 @@
         <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I98" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.8">
       <c r="A99" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B99" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C99" t="s">
         <v>330</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>331</v>
-      </c>
-      <c r="D99" t="s">
-        <v>332</v>
       </c>
       <c r="E99">
         <v>77</v>
@@ -16129,24 +16128,24 @@
         <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I99" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.8">
       <c r="A100" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B100" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" t="s">
         <v>333</v>
       </c>
-      <c r="C100" t="s">
-        <v>334</v>
-      </c>
       <c r="D100" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E100">
         <v>16</v>
@@ -16161,27 +16160,27 @@
         <v>2936</v>
       </c>
       <c r="I100" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.8">
       <c r="A101" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E101">
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -16190,21 +16189,21 @@
         <v>302</v>
       </c>
       <c r="I101" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.8">
       <c r="A102" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B102" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C102" t="s">
         <v>336</v>
       </c>
-      <c r="C102" t="s">
-        <v>337</v>
-      </c>
       <c r="D102" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E102">
         <v>21</v>
@@ -16219,21 +16218,21 @@
         <v>924</v>
       </c>
       <c r="I102" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B103" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C103" t="s">
         <v>338</v>
       </c>
-      <c r="C103" t="s">
-        <v>339</v>
-      </c>
       <c r="D103" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E103">
         <v>11</v>
@@ -16248,21 +16247,21 @@
         <v>298</v>
       </c>
       <c r="I103" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.8">
       <c r="A104" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B104" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C104" t="s">
         <v>340</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>341</v>
-      </c>
-      <c r="D104" t="s">
-        <v>342</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -16277,27 +16276,27 @@
         <v>21</v>
       </c>
       <c r="I104" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.8">
       <c r="A105" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C105" t="s">
         <v>343</v>
       </c>
-      <c r="C105" t="s">
-        <v>344</v>
-      </c>
       <c r="D105" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E105">
         <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G105">
         <v>7</v>
@@ -16306,21 +16305,21 @@
         <v>223</v>
       </c>
       <c r="I105" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.8">
       <c r="A106" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B106" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C106" t="s">
         <v>345</v>
       </c>
-      <c r="C106" t="s">
-        <v>346</v>
-      </c>
       <c r="D106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -16335,21 +16334,21 @@
         <v>8</v>
       </c>
       <c r="I106" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="19.8">
       <c r="A107" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B107" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C107" t="s">
         <v>347</v>
       </c>
-      <c r="C107" t="s">
-        <v>348</v>
-      </c>
       <c r="D107" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E107">
         <v>13</v>
@@ -16364,21 +16363,21 @@
         <v>784</v>
       </c>
       <c r="I107" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.8">
       <c r="A108" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B108" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" t="s">
         <v>349</v>
       </c>
-      <c r="C108" t="s">
-        <v>350</v>
-      </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E108">
         <v>47</v>
@@ -16393,21 +16392,21 @@
         <v>7314</v>
       </c>
       <c r="I108" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.8">
       <c r="A109" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B109" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C109" t="s">
         <v>351</v>
       </c>
-      <c r="C109" t="s">
-        <v>352</v>
-      </c>
       <c r="D109" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E109">
         <v>1308</v>
@@ -16419,24 +16418,24 @@
         <v>15</v>
       </c>
       <c r="H109" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I109" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.8">
       <c r="A110" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B110" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C110" t="s">
         <v>354</v>
       </c>
-      <c r="C110" t="s">
-        <v>355</v>
-      </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E110">
         <v>8</v>
@@ -16451,21 +16450,21 @@
         <v>306</v>
       </c>
       <c r="I110" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.8">
       <c r="A111" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B111" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C111" t="s">
         <v>356</v>
       </c>
-      <c r="C111" t="s">
-        <v>357</v>
-      </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -16480,21 +16479,21 @@
         <v>13</v>
       </c>
       <c r="I111" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.8">
       <c r="A112" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B112" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C112" t="s">
         <v>358</v>
       </c>
-      <c r="C112" t="s">
-        <v>359</v>
-      </c>
       <c r="D112" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E112">
         <v>3</v>
@@ -16509,21 +16508,21 @@
         <v>222</v>
       </c>
       <c r="I112" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.8">
       <c r="A113" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C113" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E113">
         <v>7</v>
@@ -16538,27 +16537,27 @@
         <v>3401</v>
       </c>
       <c r="I113" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.8">
       <c r="A114" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B114" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C114" t="s">
         <v>361</v>
       </c>
-      <c r="C114" t="s">
-        <v>362</v>
-      </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E114">
         <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -16567,21 +16566,21 @@
         <v>163</v>
       </c>
       <c r="I114" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B115" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="C115" t="s">
         <v>363</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>364</v>
-      </c>
-      <c r="D115" t="s">
-        <v>365</v>
       </c>
       <c r="E115">
         <v>87</v>
@@ -16596,21 +16595,21 @@
         <v>798</v>
       </c>
       <c r="I115" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.8">
       <c r="A116" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B116" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C116" t="s">
         <v>366</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>367</v>
-      </c>
-      <c r="D116" t="s">
-        <v>368</v>
       </c>
       <c r="E116">
         <v>218</v>
@@ -16622,24 +16621,24 @@
         <v>76</v>
       </c>
       <c r="H116" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I116" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.8">
       <c r="A117" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B117" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C117" t="s">
         <v>370</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>371</v>
-      </c>
-      <c r="D117" t="s">
-        <v>372</v>
       </c>
       <c r="E117">
         <v>211</v>
@@ -16651,24 +16650,24 @@
         <v>60</v>
       </c>
       <c r="H117" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I117" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.8">
       <c r="A118" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B118" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C118" t="s">
         <v>374</v>
       </c>
-      <c r="C118" t="s">
-        <v>375</v>
-      </c>
       <c r="D118" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E118">
         <v>7133</v>
@@ -16680,24 +16679,24 @@
         <v>1534</v>
       </c>
       <c r="H118" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I118" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.8">
       <c r="A119" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B119" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C119" t="s">
         <v>377</v>
       </c>
-      <c r="C119" t="s">
-        <v>378</v>
-      </c>
       <c r="D119" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E119">
         <v>460</v>
@@ -16712,21 +16711,21 @@
         <v>8982</v>
       </c>
       <c r="I119" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.8">
       <c r="A120" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C120" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D120" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E120">
         <v>66</v>
@@ -16741,21 +16740,21 @@
         <v>2877</v>
       </c>
       <c r="I120" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.8">
       <c r="A121" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B121" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C121" t="s">
         <v>380</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>381</v>
-      </c>
-      <c r="D121" t="s">
-        <v>382</v>
       </c>
       <c r="E121">
         <v>57</v>
@@ -16770,21 +16769,21 @@
         <v>922</v>
       </c>
       <c r="I121" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.8">
       <c r="A122" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B122" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C122" t="s">
         <v>383</v>
       </c>
-      <c r="C122" t="s">
-        <v>384</v>
-      </c>
       <c r="D122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E122">
         <v>16</v>
@@ -16799,21 +16798,21 @@
         <v>392</v>
       </c>
       <c r="I122" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.8">
       <c r="A123" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B123" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C123" t="s">
         <v>385</v>
       </c>
-      <c r="C123" t="s">
-        <v>386</v>
-      </c>
       <c r="D123" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E123">
         <v>975</v>
@@ -16825,21 +16824,21 @@
         <v>137</v>
       </c>
       <c r="H123" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I123" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="19.8">
       <c r="A124" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B124" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="C124" t="s">
         <v>388</v>
-      </c>
-      <c r="C124" t="s">
-        <v>389</v>
       </c>
       <c r="D124">
         <v>11</v>
@@ -16857,21 +16856,21 @@
         <v>309</v>
       </c>
       <c r="I124" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.8">
       <c r="A125" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B125" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C125" t="s">
         <v>390</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>391</v>
-      </c>
-      <c r="D125" t="s">
-        <v>392</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -16886,21 +16885,21 @@
         <v>6</v>
       </c>
       <c r="I125" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.8">
       <c r="A126" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B126" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C126" t="s">
         <v>393</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>394</v>
-      </c>
-      <c r="D126" t="s">
-        <v>395</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -16915,21 +16914,21 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.8">
       <c r="A127" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B127" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C127" t="s">
         <v>396</v>
       </c>
-      <c r="C127" t="s">
-        <v>397</v>
-      </c>
       <c r="D127" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -16944,27 +16943,27 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.8">
       <c r="A128" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B128" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C128" t="s">
         <v>398</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>399</v>
-      </c>
-      <c r="D128" t="s">
-        <v>400</v>
       </c>
       <c r="E128">
         <v>3</v>
       </c>
       <c r="F128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -16973,21 +16972,21 @@
         <v>33</v>
       </c>
       <c r="I128" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.8">
       <c r="A129" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B129" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C129" t="s">
         <v>401</v>
       </c>
-      <c r="C129" t="s">
-        <v>402</v>
-      </c>
       <c r="D129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E129">
         <v>177</v>
@@ -17002,21 +17001,21 @@
         <v>4356</v>
       </c>
       <c r="I129" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.8">
       <c r="A130" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B130" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C130" t="s">
         <v>403</v>
       </c>
-      <c r="C130" t="s">
-        <v>404</v>
-      </c>
       <c r="D130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E130">
         <v>6</v>
@@ -17031,21 +17030,21 @@
         <v>424</v>
       </c>
       <c r="I130" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.8">
       <c r="A131" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B131" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C131" t="s">
         <v>405</v>
       </c>
-      <c r="C131" t="s">
-        <v>406</v>
-      </c>
       <c r="D131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E131">
         <v>328</v>
@@ -17060,21 +17059,21 @@
         <v>7753</v>
       </c>
       <c r="I131" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.8">
       <c r="A132" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B132" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C132" t="s">
+        <v>396</v>
+      </c>
+      <c r="D132" t="s">
         <v>407</v>
-      </c>
-      <c r="C132" t="s">
-        <v>397</v>
-      </c>
-      <c r="D132" t="s">
-        <v>408</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -17086,30 +17085,30 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I132" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.8">
       <c r="A133" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B133" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C133" t="s">
         <v>409</v>
       </c>
-      <c r="C133" t="s">
-        <v>410</v>
-      </c>
       <c r="D133" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -17118,21 +17117,21 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B134" t="s">
+        <v>410</v>
+      </c>
+      <c r="C134" t="s">
         <v>411</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>412</v>
-      </c>
-      <c r="D134" t="s">
-        <v>413</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -17147,21 +17146,21 @@
         <v>12</v>
       </c>
       <c r="I134" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.8">
       <c r="A135" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B135" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C135" t="s">
         <v>414</v>
       </c>
-      <c r="C135" t="s">
-        <v>415</v>
-      </c>
       <c r="D135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -17176,21 +17175,21 @@
         <v>4</v>
       </c>
       <c r="I135" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.8">
       <c r="A136" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B136" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C136" t="s">
         <v>416</v>
       </c>
-      <c r="C136" t="s">
-        <v>417</v>
-      </c>
       <c r="D136" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -17202,24 +17201,24 @@
         <v>6</v>
       </c>
       <c r="H136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I136" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B137" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C137" t="s">
         <v>418</v>
       </c>
-      <c r="C137" t="s">
-        <v>419</v>
-      </c>
       <c r="D137" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -17234,21 +17233,21 @@
         <v>38</v>
       </c>
       <c r="I137" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.8">
       <c r="A138" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B138" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C138" t="s">
         <v>420</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>421</v>
-      </c>
-      <c r="D138" t="s">
-        <v>422</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -17263,21 +17262,21 @@
         <v>7</v>
       </c>
       <c r="I138" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.8">
       <c r="A139" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B139" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C139" t="s">
         <v>423</v>
       </c>
-      <c r="C139" t="s">
-        <v>424</v>
-      </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -17292,21 +17291,21 @@
         <v>8</v>
       </c>
       <c r="I139" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.8">
       <c r="A140" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B140" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C140" t="s">
         <v>425</v>
       </c>
-      <c r="C140" t="s">
-        <v>426</v>
-      </c>
       <c r="D140" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -17321,27 +17320,27 @@
         <v>12</v>
       </c>
       <c r="I140" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.8">
       <c r="A141" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B141" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C141" t="s">
         <v>427</v>
       </c>
-      <c r="C141" t="s">
-        <v>428</v>
-      </c>
       <c r="D141" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -17350,21 +17349,21 @@
         <v>38</v>
       </c>
       <c r="I141" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.8">
       <c r="A142" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B142" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C142" t="s">
         <v>429</v>
       </c>
-      <c r="C142" t="s">
-        <v>430</v>
-      </c>
       <c r="D142" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -17379,21 +17378,21 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.8">
       <c r="A143" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B143" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C143" t="s">
         <v>431</v>
       </c>
-      <c r="C143" t="s">
-        <v>432</v>
-      </c>
       <c r="D143" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E143">
         <v>43</v>
@@ -17408,21 +17407,21 @@
         <v>391</v>
       </c>
       <c r="I143" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.8">
       <c r="A144" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B144" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="C144" t="s">
         <v>433</v>
       </c>
-      <c r="C144" t="s">
-        <v>434</v>
-      </c>
       <c r="D144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -17437,21 +17436,21 @@
         <v>13</v>
       </c>
       <c r="I144" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.8">
       <c r="A145" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B145" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="C145" t="s">
         <v>435</v>
       </c>
-      <c r="C145" t="s">
-        <v>436</v>
-      </c>
       <c r="D145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -17466,21 +17465,21 @@
         <v>33</v>
       </c>
       <c r="I145" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.8">
       <c r="A146" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B146" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C146" t="s">
         <v>437</v>
       </c>
-      <c r="C146" t="s">
-        <v>438</v>
-      </c>
       <c r="D146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -17495,21 +17494,21 @@
         <v>959</v>
       </c>
       <c r="I146" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.8">
       <c r="A147" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B147" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C147" t="s">
         <v>439</v>
       </c>
-      <c r="C147" t="s">
-        <v>440</v>
-      </c>
       <c r="D147" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E147">
         <v>6</v>
@@ -17524,21 +17523,21 @@
         <v>115</v>
       </c>
       <c r="I147" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.8">
       <c r="A148" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B148" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C148" t="s">
         <v>441</v>
       </c>
-      <c r="C148" t="s">
-        <v>442</v>
-      </c>
       <c r="D148" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E148">
         <v>25</v>
@@ -17553,21 +17552,21 @@
         <v>792</v>
       </c>
       <c r="I148" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.8">
       <c r="A149" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B149" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C149" t="s">
         <v>443</v>
       </c>
-      <c r="C149" t="s">
-        <v>444</v>
-      </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E149">
         <v>8</v>
@@ -17582,21 +17581,21 @@
         <v>271</v>
       </c>
       <c r="I149" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.8">
       <c r="A150" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B150" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C150" t="s">
         <v>445</v>
       </c>
-      <c r="C150" t="s">
-        <v>446</v>
-      </c>
       <c r="D150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -17611,21 +17610,21 @@
         <v>55</v>
       </c>
       <c r="I150" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B151" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C151" t="s">
         <v>447</v>
       </c>
-      <c r="C151" t="s">
-        <v>448</v>
-      </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E151">
         <v>30</v>
@@ -17640,21 +17639,21 @@
         <v>1380</v>
       </c>
       <c r="I151" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.8">
       <c r="A152" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B152" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C152" t="s">
         <v>449</v>
       </c>
-      <c r="C152" t="s">
-        <v>450</v>
-      </c>
       <c r="D152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -17669,21 +17668,21 @@
         <v>217</v>
       </c>
       <c r="I152" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.8">
       <c r="A153" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B153" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="C153" t="s">
         <v>451</v>
       </c>
-      <c r="C153" t="s">
-        <v>452</v>
-      </c>
       <c r="D153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E153">
         <v>5</v>
@@ -17698,27 +17697,27 @@
         <v>695</v>
       </c>
       <c r="I153" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.8">
       <c r="A154" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B154" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="C154" t="s">
         <v>453</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>454</v>
-      </c>
-      <c r="D154" t="s">
-        <v>455</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -17727,21 +17726,21 @@
         <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.8">
       <c r="A155" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B155" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C155" t="s">
         <v>456</v>
       </c>
-      <c r="C155" t="s">
-        <v>457</v>
-      </c>
       <c r="D155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -17756,21 +17755,21 @@
         <v>8</v>
       </c>
       <c r="I155" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.8">
       <c r="A156" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B156" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="C156" t="s">
         <v>458</v>
       </c>
-      <c r="C156" t="s">
-        <v>459</v>
-      </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E156">
         <v>12</v>
@@ -17785,21 +17784,21 @@
         <v>1249</v>
       </c>
       <c r="I156" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.8">
       <c r="A157" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B157" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="C157" t="s">
         <v>460</v>
       </c>
-      <c r="C157" t="s">
-        <v>461</v>
-      </c>
       <c r="D157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E157">
         <v>102</v>
@@ -17808,21 +17807,21 @@
         <v>491</v>
       </c>
       <c r="I157" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.8">
       <c r="A158" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B158" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="C158" t="s">
         <v>462</v>
       </c>
-      <c r="C158" t="s">
-        <v>463</v>
-      </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E158">
         <v>2</v>
@@ -17837,27 +17836,27 @@
         <v>88</v>
       </c>
       <c r="I158" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.8">
       <c r="A159" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B159" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="C159" t="s">
         <v>464</v>
       </c>
-      <c r="C159" t="s">
-        <v>465</v>
-      </c>
       <c r="D159" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E159">
         <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G159">
         <v>4</v>
@@ -17866,21 +17865,21 @@
         <v>246</v>
       </c>
       <c r="I159" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.8">
       <c r="A160" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B160" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C160" t="s">
         <v>466</v>
       </c>
-      <c r="C160" t="s">
-        <v>467</v>
-      </c>
       <c r="D160" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E160">
         <v>12</v>
@@ -17895,21 +17894,21 @@
         <v>771</v>
       </c>
       <c r="I160" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.8">
       <c r="A161" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B161" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="C161" t="s">
         <v>468</v>
       </c>
-      <c r="C161" t="s">
-        <v>469</v>
-      </c>
       <c r="D161" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E161">
         <v>178</v>
@@ -17924,21 +17923,21 @@
         <v>6531</v>
       </c>
       <c r="I161" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.8">
       <c r="A162" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B162" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C162" t="s">
         <v>470</v>
       </c>
-      <c r="C162" t="s">
-        <v>471</v>
-      </c>
       <c r="D162" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E162">
         <v>80</v>
@@ -17953,79 +17952,79 @@
         <v>1149</v>
       </c>
       <c r="I162" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B163" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="D163" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E163" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>474</v>
       </c>
       <c r="F163" s="6">
         <v>389</v>
       </c>
       <c r="G163" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H163" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="H163" s="7" t="s">
-        <v>476</v>
-      </c>
       <c r="I163" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15">
       <c r="A164" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B164" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="D164" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="F164" s="2">
         <v>993</v>
       </c>
       <c r="G164" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H164" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="H164" s="3" t="s">
-        <v>481</v>
-      </c>
       <c r="I164" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>483</v>
-      </c>
       <c r="D165" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E165" s="6">
         <v>4039</v>
@@ -18037,24 +18036,24 @@
         <v>835</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I165" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B166" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="E166" s="2">
         <v>7858</v>
@@ -18066,27 +18065,27 @@
         <v>1247</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I166" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B167" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C167" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="D167" t="s">
+        <v>36</v>
+      </c>
+      <c r="E167" t="s">
         <v>490</v>
-      </c>
-      <c r="D167" t="s">
-        <v>37</v>
-      </c>
-      <c r="E167" t="s">
-        <v>491</v>
       </c>
       <c r="F167">
         <v>41</v>
@@ -18095,24 +18094,24 @@
         <v>1757</v>
       </c>
       <c r="H167" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I167" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B168" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C168" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="C168" s="13" t="s">
-        <v>494</v>
-      </c>
       <c r="D168" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E168">
         <v>813</v>
@@ -18124,27 +18123,27 @@
         <v>159</v>
       </c>
       <c r="H168" s="23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I168" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B169" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C169" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="D169" t="s">
         <v>497</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>498</v>
-      </c>
-      <c r="E169" t="s">
-        <v>499</v>
       </c>
       <c r="F169">
         <v>62</v>
@@ -18153,24 +18152,24 @@
         <v>1380</v>
       </c>
       <c r="H169" s="22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I169" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B170" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C170" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="C170" s="13" t="s">
-        <v>502</v>
-      </c>
       <c r="D170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E170">
         <v>9586</v>
@@ -18182,24 +18181,24 @@
         <v>881</v>
       </c>
       <c r="H170" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I170" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E171">
         <v>8963</v>
@@ -18211,27 +18210,27 @@
         <v>1211</v>
       </c>
       <c r="H171" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I171" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B172" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="D172" t="s">
+        <v>486</v>
+      </c>
+      <c r="E172" t="s">
         <v>505</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="D172" t="s">
-        <v>487</v>
-      </c>
-      <c r="E172" t="s">
-        <v>506</v>
       </c>
       <c r="F172" s="13">
         <v>625</v>
@@ -18240,27 +18239,27 @@
         <v>5182</v>
       </c>
       <c r="H172" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I172" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C173" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="D173" t="s">
+        <v>46</v>
+      </c>
+      <c r="E173" t="s">
         <v>509</v>
-      </c>
-      <c r="D173" t="s">
-        <v>47</v>
-      </c>
-      <c r="E173" t="s">
-        <v>510</v>
       </c>
       <c r="F173">
         <v>108</v>
@@ -18269,24 +18268,24 @@
         <v>2603</v>
       </c>
       <c r="H173" s="22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I173" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B174" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C174" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="C174" s="13" t="s">
-        <v>513</v>
-      </c>
       <c r="D174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E174">
         <v>6682</v>
@@ -18298,27 +18297,27 @@
         <v>517</v>
       </c>
       <c r="H174" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I174" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B175" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C175" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="C175" s="13" t="s">
-        <v>516</v>
-      </c>
       <c r="D175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F175">
         <v>71</v>
@@ -18327,24 +18326,24 @@
         <v>1302</v>
       </c>
       <c r="H175" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I175" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C176" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="C176" s="13" t="s">
-        <v>519</v>
-      </c>
       <c r="D176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E176">
         <v>8765</v>
@@ -18356,21 +18355,21 @@
         <v>1165</v>
       </c>
       <c r="H176" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I176" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B177" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="C177" s="13" t="s">
         <v>521</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>522</v>
       </c>
       <c r="E177">
         <v>770</v>
@@ -18382,27 +18381,27 @@
         <v>125</v>
       </c>
       <c r="H177" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I177" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B178" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C178" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="D178" t="s">
+        <v>31</v>
+      </c>
+      <c r="E178" t="s">
         <v>525</v>
-      </c>
-      <c r="D178" t="s">
-        <v>32</v>
-      </c>
-      <c r="E178" t="s">
-        <v>526</v>
       </c>
       <c r="F178" s="13">
         <v>17</v>
@@ -18411,24 +18410,24 @@
         <v>2884</v>
       </c>
       <c r="H178" s="23" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I178" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B179" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C179" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="C179" s="13" t="s">
-        <v>529</v>
-      </c>
       <c r="D179" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E179">
         <v>821</v>
@@ -18440,24 +18439,24 @@
         <v>78</v>
       </c>
       <c r="H179" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I179" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B180" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="C180" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="C180" s="13" t="s">
-        <v>532</v>
-      </c>
       <c r="D180" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E180">
         <v>1542</v>
@@ -18469,24 +18468,24 @@
         <v>153</v>
       </c>
       <c r="H180" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I180" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B181" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C181" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="C181" s="13" t="s">
-        <v>535</v>
-      </c>
       <c r="D181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E181">
         <v>2208</v>
@@ -18498,24 +18497,24 @@
         <v>463</v>
       </c>
       <c r="H181" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I181" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B182" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="D182" t="s">
         <v>537</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="D182" t="s">
-        <v>538</v>
       </c>
       <c r="E182">
         <v>301</v>
@@ -18527,30 +18526,30 @@
         <v>35</v>
       </c>
       <c r="H182" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I182" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B183" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C183" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="C183" s="13" t="s">
-        <v>541</v>
-      </c>
       <c r="D183" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E183">
         <v>467</v>
       </c>
       <c r="F183" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G183">
         <v>166</v>
@@ -18559,21 +18558,21 @@
         <v>7251</v>
       </c>
       <c r="I183" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B184" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C184" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="C184" s="13" t="s">
-        <v>543</v>
-      </c>
       <c r="D184" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E184">
         <v>95</v>
@@ -18588,21 +18587,21 @@
         <v>3405</v>
       </c>
       <c r="I184" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B185" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C185" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="C185" s="13" t="s">
-        <v>545</v>
-      </c>
       <c r="D185" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E185">
         <v>57</v>
@@ -18617,21 +18616,21 @@
         <v>108</v>
       </c>
       <c r="I185" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B186" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C186" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="C186" s="13" t="s">
-        <v>547</v>
-      </c>
       <c r="D186" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E186">
         <v>331</v>
@@ -18646,21 +18645,21 @@
         <v>6986</v>
       </c>
       <c r="I186" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B187" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C187" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="C187" s="13" t="s">
-        <v>549</v>
-      </c>
       <c r="D187" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E187">
         <v>2164</v>
@@ -18672,30 +18671,30 @@
         <v>526</v>
       </c>
       <c r="H187" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I187" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B188" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C188" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="C188" s="13" t="s">
-        <v>552</v>
-      </c>
       <c r="D188" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E188">
         <v>108</v>
       </c>
       <c r="F188" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G188" s="13">
         <v>29</v>
@@ -18704,21 +18703,21 @@
         <v>2587</v>
       </c>
       <c r="I188" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B189" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C189" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="C189" s="13" t="s">
-        <v>554</v>
-      </c>
       <c r="D189" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E189">
         <v>71</v>
@@ -18733,21 +18732,21 @@
         <v>2930</v>
       </c>
       <c r="I189" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B190" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C190" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="C190" s="13" t="s">
-        <v>556</v>
-      </c>
       <c r="D190" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -18759,24 +18758,24 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I190" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B191" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C191" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="C191" s="13" t="s">
-        <v>558</v>
-      </c>
       <c r="D191" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -18788,24 +18787,24 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I191" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B192" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C192" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="C192" s="13" t="s">
-        <v>560</v>
-      </c>
       <c r="D192" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -18817,24 +18816,24 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I192" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B193" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="C193" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="C193" s="13" t="s">
-        <v>562</v>
-      </c>
       <c r="D193" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -18849,21 +18848,21 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B194" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C194" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="C194" s="13" t="s">
-        <v>564</v>
-      </c>
       <c r="D194" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -18878,21 +18877,21 @@
         <v>3</v>
       </c>
       <c r="I194" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B195" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C195" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="C195" s="13" t="s">
-        <v>566</v>
-      </c>
       <c r="D195" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E195">
         <v>3</v>
@@ -18907,21 +18906,21 @@
         <v>30</v>
       </c>
       <c r="I195" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B196" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C196" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="C196" s="13" t="s">
+      <c r="D196" t="s">
         <v>568</v>
-      </c>
-      <c r="D196" t="s">
-        <v>569</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -18936,21 +18935,21 @@
         <v>24</v>
       </c>
       <c r="I196" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B197" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C197" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C197" s="13" t="s">
-        <v>571</v>
-      </c>
       <c r="D197" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -18962,24 +18961,24 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I197" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B198" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C198" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="C198" s="13" t="s">
-        <v>573</v>
-      </c>
       <c r="D198" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -18994,21 +18993,21 @@
         <v>27</v>
       </c>
       <c r="I198" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B199" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C199" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="C199" s="13" t="s">
+      <c r="D199" t="s">
         <v>575</v>
-      </c>
-      <c r="D199" t="s">
-        <v>576</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -19023,21 +19022,21 @@
         <v>29</v>
       </c>
       <c r="I199" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B200" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C200" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="C200" s="13" t="s">
+      <c r="D200" t="s">
         <v>578</v>
-      </c>
-      <c r="D200" t="s">
-        <v>579</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -19052,21 +19051,21 @@
         <v>25</v>
       </c>
       <c r="I200" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B201" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C201" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="C201" s="13" t="s">
+      <c r="D201" t="s">
         <v>581</v>
-      </c>
-      <c r="D201" t="s">
-        <v>582</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -19081,21 +19080,21 @@
         <v>17</v>
       </c>
       <c r="I201" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B202" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="C202" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="C202" s="13" t="s">
+      <c r="D202" t="s">
         <v>584</v>
-      </c>
-      <c r="D202" t="s">
-        <v>585</v>
       </c>
       <c r="E202">
         <v>2</v>
@@ -19110,21 +19109,21 @@
         <v>159</v>
       </c>
       <c r="I202" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B203" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C203" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="C203" s="13" t="s">
-        <v>587</v>
-      </c>
       <c r="D203" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E203">
         <v>5</v>
@@ -19139,21 +19138,21 @@
         <v>158</v>
       </c>
       <c r="I203" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B204" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C204" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="C204" s="13" t="s">
-        <v>589</v>
-      </c>
       <c r="D204" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E204">
         <v>2</v>
@@ -19168,21 +19167,21 @@
         <v>48</v>
       </c>
       <c r="I204" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B205" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C205" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="C205" s="13" t="s">
-        <v>591</v>
-      </c>
       <c r="D205" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E205">
         <v>16</v>
@@ -19197,21 +19196,21 @@
         <v>459</v>
       </c>
       <c r="I205" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B206" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C206" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="C206" s="13" t="s">
-        <v>593</v>
-      </c>
       <c r="D206" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -19226,21 +19225,21 @@
         <v>22</v>
       </c>
       <c r="I206" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B207" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C207" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="C207" s="13" t="s">
+      <c r="D207" t="s">
         <v>595</v>
-      </c>
-      <c r="D207" t="s">
-        <v>596</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -19255,21 +19254,21 @@
         <v>23</v>
       </c>
       <c r="I207" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.8">
       <c r="A208" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B208" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="C208" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="C208" s="6" t="s">
-        <v>746</v>
-      </c>
       <c r="D208" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E208" s="6">
         <v>49</v>
@@ -19284,21 +19283,21 @@
         <v>2596</v>
       </c>
       <c r="I208" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B209" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>748</v>
-      </c>
       <c r="D209" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E209" s="2">
         <v>457</v>
@@ -19310,24 +19309,24 @@
         <v>80</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I209" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B210" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="C210" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="C210" s="6" t="s">
-        <v>750</v>
-      </c>
       <c r="D210" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E210" s="6">
         <v>206</v>
@@ -19342,21 +19341,21 @@
         <v>6393</v>
       </c>
       <c r="I210" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.8">
       <c r="A211" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B211" s="29" t="s">
+        <v>750</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>752</v>
-      </c>
       <c r="D211" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E211" s="2">
         <v>222</v>
@@ -19368,24 +19367,24 @@
         <v>267</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I211" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.8">
       <c r="A212" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B212" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="C212" s="6" t="s">
-        <v>754</v>
-      </c>
       <c r="D212" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E212" s="6">
         <v>3224</v>
@@ -19397,24 +19396,24 @@
         <v>1019</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I212" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.8">
       <c r="A213" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B213" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>757</v>
-      </c>
       <c r="D213" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E213" s="2">
         <v>385</v>
@@ -19426,24 +19425,24 @@
         <v>192</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I213" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.8">
       <c r="A214" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B214" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="C214" s="6" t="s">
-        <v>760</v>
-      </c>
       <c r="D214" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E214" s="6">
         <v>178</v>
@@ -19455,24 +19454,24 @@
         <v>67</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I214" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.8">
       <c r="A215" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B215" s="29" t="s">
+        <v>760</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="D215" s="2" t="s">
         <v>762</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>763</v>
       </c>
       <c r="E215" s="2">
         <v>851</v>
@@ -19484,24 +19483,24 @@
         <v>426</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I215" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B216" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="C216" s="6" t="s">
-        <v>766</v>
-      </c>
       <c r="D216" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E216" s="6">
         <v>77</v>
@@ -19516,21 +19515,21 @@
         <v>2145</v>
       </c>
       <c r="I216" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.8">
       <c r="A217" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B217" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="D217" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>769</v>
       </c>
       <c r="E217" s="2">
         <v>2733</v>
@@ -19542,24 +19541,24 @@
         <v>895</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I217" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.8">
       <c r="A218" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B218" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C218" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="C218" s="6" t="s">
-        <v>772</v>
-      </c>
       <c r="D218" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E218" s="6">
         <v>43</v>
@@ -19574,21 +19573,21 @@
         <v>1488</v>
       </c>
       <c r="I218" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.8">
       <c r="A219" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B219" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>774</v>
-      </c>
       <c r="D219" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E219" s="2">
         <v>86</v>
@@ -19603,21 +19602,21 @@
         <v>1172</v>
       </c>
       <c r="I219" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.8">
       <c r="A220" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B220" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="C220" s="6" t="s">
+      <c r="D220" s="6" t="s">
         <v>776</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>777</v>
       </c>
       <c r="E220" s="6">
         <v>1145</v>
@@ -19629,24 +19628,24 @@
         <v>672</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I220" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.8">
       <c r="A221" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B221" s="29" t="s">
+        <v>778</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>780</v>
-      </c>
       <c r="D221" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E221" s="2">
         <v>116</v>
@@ -19661,21 +19660,21 @@
         <v>2326</v>
       </c>
       <c r="I221" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.8">
       <c r="A222" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B222" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="C222" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="D222" s="6" t="s">
         <v>782</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>783</v>
       </c>
       <c r="E222" s="6">
         <v>371</v>
@@ -19687,24 +19686,24 @@
         <v>159</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I222" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.8">
       <c r="A223" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B223" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>785</v>
-      </c>
       <c r="D223" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E223" s="2">
         <v>312</v>
@@ -19716,24 +19715,24 @@
         <v>139</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I223" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.8">
       <c r="A224" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B224" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="C224" s="6" t="s">
-        <v>788</v>
-      </c>
       <c r="D224" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E224" s="6">
         <v>532</v>
@@ -19745,24 +19744,24 @@
         <v>352</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I224" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.8">
       <c r="A225" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B225" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>790</v>
-      </c>
       <c r="D225" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E225" s="2">
         <v>740</v>
@@ -19774,24 +19773,24 @@
         <v>238</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I225" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.8">
       <c r="A226" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B226" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C226" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="C226" s="6" t="s">
-        <v>792</v>
-      </c>
       <c r="D226" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E226" s="6">
         <v>2082</v>
@@ -19803,53 +19802,53 @@
         <v>588</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I226" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.8">
       <c r="A227" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B227" s="29" t="s">
+        <v>793</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="D227" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="F227" s="2">
         <v>4820</v>
       </c>
       <c r="G227" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="H227" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="H227" s="3" t="s">
-        <v>798</v>
-      </c>
       <c r="I227" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="16.8">
       <c r="A228" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B228" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="C228" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="C228" s="6" t="s">
-        <v>800</v>
-      </c>
       <c r="D228" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E228" s="6">
         <v>82</v>
@@ -19864,21 +19863,21 @@
         <v>7289</v>
       </c>
       <c r="I228" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B229" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>802</v>
-      </c>
       <c r="D229" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E229" s="2">
         <v>749</v>
@@ -19890,24 +19889,24 @@
         <v>103</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I229" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E230" s="6">
         <v>2406</v>
@@ -19919,24 +19918,24 @@
         <v>710</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I230" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="16.8">
       <c r="A231" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B231" s="29" t="s">
+        <v>804</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>806</v>
-      </c>
       <c r="D231" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E231" s="2">
         <v>1059</v>
@@ -19948,24 +19947,24 @@
         <v>117</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I231" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="16.8">
       <c r="A232" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B232" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="C232" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="C232" s="6" t="s">
-        <v>808</v>
-      </c>
       <c r="D232" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E232" s="6">
         <v>54</v>
@@ -19977,24 +19976,24 @@
         <v>18</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I232" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.8">
       <c r="A233" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B233" s="29" t="s">
+        <v>808</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>810</v>
-      </c>
       <c r="D233" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E233" s="2">
         <v>3557</v>
@@ -20006,24 +20005,24 @@
         <v>573</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I233" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.8">
       <c r="A234" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B234" s="26" t="s">
+        <v>811</v>
+      </c>
+      <c r="C234" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C234" s="6" t="s">
-        <v>813</v>
-      </c>
       <c r="D234" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E234" s="6">
         <v>425</v>
@@ -20038,21 +20037,21 @@
         <v>9029</v>
       </c>
       <c r="I234" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B235" s="27" t="s">
+        <v>813</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>815</v>
-      </c>
       <c r="D235" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E235" s="2">
         <v>3159</v>
@@ -20064,24 +20063,24 @@
         <v>912</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I235" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.8">
       <c r="A236" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B236" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="C236" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C236" s="6" t="s">
-        <v>817</v>
-      </c>
       <c r="D236" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E236" s="6">
         <v>144</v>
@@ -20096,21 +20095,21 @@
         <v>3636</v>
       </c>
       <c r="I236" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.8">
       <c r="A237" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B237" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>819</v>
-      </c>
       <c r="D237" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E237" s="2">
         <v>63</v>
@@ -20125,21 +20124,21 @@
         <v>1708</v>
       </c>
       <c r="I237" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.8">
       <c r="A238" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B238" s="26" t="s">
+        <v>819</v>
+      </c>
+      <c r="C238" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C238" s="6" t="s">
-        <v>821</v>
-      </c>
       <c r="D238" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E238" s="6">
         <v>254</v>
@@ -20151,24 +20150,24 @@
         <v>124</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I238" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.8">
       <c r="A239" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B239" s="29" t="s">
+        <v>821</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>823</v>
-      </c>
       <c r="D239" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E239" s="2">
         <v>386</v>
@@ -20183,21 +20182,21 @@
         <v>9844</v>
       </c>
       <c r="I239" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.8">
       <c r="A240" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B240" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="C240" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="C240" s="6" t="s">
+      <c r="D240" s="6" t="s">
         <v>825</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>826</v>
       </c>
       <c r="E240" s="6">
         <v>74</v>
@@ -20212,21 +20211,21 @@
         <v>1341</v>
       </c>
       <c r="I240" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.8">
       <c r="A241" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B241" s="29" t="s">
+        <v>826</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>828</v>
-      </c>
       <c r="D241" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E241" s="2">
         <v>161</v>
@@ -20241,21 +20240,21 @@
         <v>3091</v>
       </c>
       <c r="I241" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.8">
       <c r="A242" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B242" s="32" t="s">
+        <v>828</v>
+      </c>
+      <c r="C242" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="C242" s="6" t="s">
-        <v>830</v>
-      </c>
       <c r="D242" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E242" s="6">
         <v>31</v>
@@ -20270,21 +20269,21 @@
         <v>9876</v>
       </c>
       <c r="I242" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.8">
       <c r="A243" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B243" s="29" t="s">
+        <v>830</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>832</v>
-      </c>
       <c r="D243" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E243" s="2">
         <v>1604</v>
@@ -20296,24 +20295,24 @@
         <v>486</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I243" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.8">
       <c r="A244" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B244" s="26" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E244" s="6">
         <v>121</v>
@@ -20328,21 +20327,21 @@
         <v>2296</v>
       </c>
       <c r="I244" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B245" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>836</v>
-      </c>
       <c r="D245" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E245" s="2">
         <v>279</v>
@@ -20354,24 +20353,24 @@
         <v>81</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I245" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.8">
       <c r="A246" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B246" s="26" t="s">
+        <v>837</v>
+      </c>
+      <c r="C246" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="C246" s="6" t="s">
-        <v>839</v>
-      </c>
       <c r="D246" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E246" s="6">
         <v>2586</v>
@@ -20383,24 +20382,24 @@
         <v>1241</v>
       </c>
       <c r="H246" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I246" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.8">
       <c r="A247" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B247" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>842</v>
-      </c>
       <c r="D247" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E247" s="2">
         <v>15</v>
@@ -20412,24 +20411,24 @@
         <v>4</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I247" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.8">
       <c r="A248" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E248" s="6">
         <v>91</v>
@@ -20444,21 +20443,21 @@
         <v>6589</v>
       </c>
       <c r="I248" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.8">
       <c r="A249" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B249" s="29" t="s">
+        <v>843</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>845</v>
-      </c>
       <c r="D249" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E249" s="2">
         <v>699</v>
@@ -20470,24 +20469,24 @@
         <v>132</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I249" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B250" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="C250" s="6" t="s">
-        <v>848</v>
-      </c>
       <c r="D250" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E250" s="6">
         <v>103</v>
@@ -20502,21 +20501,21 @@
         <v>2399</v>
       </c>
       <c r="I250" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.8">
       <c r="A251" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B251" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>850</v>
-      </c>
       <c r="D251" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E251" s="2">
         <v>1330</v>
@@ -20528,24 +20527,24 @@
         <v>925</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I251" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.8">
       <c r="A252" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B252" s="26" t="s">
+        <v>851</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="C252" s="6" t="s">
+      <c r="D252" s="6" t="s">
         <v>853</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>854</v>
       </c>
       <c r="E252" s="6">
         <v>1468</v>
@@ -20557,24 +20556,24 @@
         <v>800</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I252" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.8">
       <c r="A253" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B253" s="29" t="s">
+        <v>855</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>857</v>
-      </c>
       <c r="D253" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E253" s="2">
         <v>162</v>
@@ -20589,21 +20588,21 @@
         <v>5327</v>
       </c>
       <c r="I253" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.8">
       <c r="A254" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B254" s="26" t="s">
+        <v>857</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="C254" s="6" t="s">
-        <v>859</v>
-      </c>
       <c r="D254" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E254" s="6">
         <v>1052</v>
@@ -20615,27 +20614,27 @@
         <v>1428</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I254" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.8">
       <c r="A255" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B255" s="26" t="s">
+        <v>907</v>
+      </c>
+      <c r="C255" s="6" t="s">
         <v>908</v>
       </c>
-      <c r="C255" s="6" t="s">
+      <c r="D255" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="E255" s="6" t="s">
         <v>909</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="E255" s="6" t="s">
-        <v>910</v>
       </c>
       <c r="F255" s="6">
         <v>2495</v>
@@ -20644,27 +20643,27 @@
         <v>9584</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I255" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.8">
       <c r="A256" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B256" s="30" t="s">
+        <v>911</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>913</v>
-      </c>
       <c r="D256" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F256" s="2">
         <v>67</v>
@@ -20673,24 +20672,24 @@
         <v>1038</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I256" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="16.8">
       <c r="A257" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B257" s="26" t="s">
+        <v>914</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>915</v>
       </c>
-      <c r="C257" s="6" t="s">
-        <v>916</v>
-      </c>
       <c r="D257" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E257" s="6">
         <v>3869</v>
@@ -20702,24 +20701,24 @@
         <v>216</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I257" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="16.8">
       <c r="A258" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B258" s="29" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C258" s="2">
         <v>433</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E258" s="2">
         <v>9084</v>
@@ -20731,27 +20730,27 @@
         <v>432</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I258" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="16.8">
       <c r="A259" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B259" s="26" t="s">
+        <v>919</v>
+      </c>
+      <c r="C259" s="6" t="s">
         <v>920</v>
       </c>
-      <c r="C259" s="6" t="s">
-        <v>921</v>
-      </c>
       <c r="D259" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F259" s="6">
         <v>319</v>
@@ -20760,24 +20759,24 @@
         <v>2915</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I259" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B260" s="27" t="s">
+        <v>922</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>924</v>
-      </c>
       <c r="D260" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E260" s="2">
         <v>2705</v>
@@ -20789,24 +20788,24 @@
         <v>317</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I260" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.8">
       <c r="A261" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B261" s="26" t="s">
+        <v>925</v>
+      </c>
+      <c r="C261" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="C261" s="6" t="s">
-        <v>927</v>
-      </c>
       <c r="D261" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E261" s="6">
         <v>3102</v>
@@ -20818,24 +20817,24 @@
         <v>378</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I261" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.8">
       <c r="A262" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B262" s="29" t="s">
+        <v>928</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>930</v>
-      </c>
       <c r="D262" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E262" s="2">
         <v>2636</v>
@@ -20847,27 +20846,27 @@
         <v>543</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I262" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.8">
       <c r="A263" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B263" s="26" t="s">
+        <v>931</v>
+      </c>
+      <c r="C263" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="C263" s="6" t="s">
-        <v>933</v>
-      </c>
       <c r="D263" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F263" s="6">
         <v>123</v>
@@ -20876,24 +20875,24 @@
         <v>2389</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I263" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="16.8">
       <c r="A264" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B264" s="29" t="s">
+        <v>934</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>936</v>
-      </c>
       <c r="D264" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E264" s="2">
         <v>1758</v>
@@ -20905,27 +20904,27 @@
         <v>55</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I264" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="16.8">
       <c r="A265" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B265" s="26" t="s">
+        <v>937</v>
+      </c>
+      <c r="C265" s="6" t="s">
         <v>938</v>
       </c>
-      <c r="C265" s="6" t="s">
-        <v>939</v>
-      </c>
       <c r="D265" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F265" s="6">
         <v>92</v>
@@ -20934,27 +20933,27 @@
         <v>920</v>
       </c>
       <c r="H265" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I265" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="16.8">
       <c r="A266" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B266" s="29" t="s">
+        <v>940</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="D266" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E266" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>943</v>
       </c>
       <c r="F266" s="2">
         <v>261</v>
@@ -20963,24 +20962,24 @@
         <v>1586</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I266" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="16.8">
       <c r="A267" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B267" s="26" t="s">
+        <v>944</v>
+      </c>
+      <c r="C267" s="6" t="s">
         <v>945</v>
       </c>
-      <c r="C267" s="6" t="s">
-        <v>946</v>
-      </c>
       <c r="D267" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E267" s="6">
         <v>1019</v>
@@ -20992,27 +20991,27 @@
         <v>301</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I267" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="16.8">
       <c r="A268" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B268" s="29" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F268" s="2">
         <v>965</v>
@@ -21021,24 +21020,24 @@
         <v>9536</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I268" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="16.8">
       <c r="A269" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B269" s="31" t="s">
+        <v>948</v>
+      </c>
+      <c r="C269" s="6" t="s">
         <v>949</v>
       </c>
-      <c r="C269" s="6" t="s">
-        <v>950</v>
-      </c>
       <c r="D269" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E269" s="6">
         <v>8447</v>
@@ -21050,27 +21049,27 @@
         <v>312</v>
       </c>
       <c r="H269" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I269" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16.8">
       <c r="A270" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B270" s="29" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F270" s="2">
         <v>87</v>
@@ -21079,24 +21078,24 @@
         <v>765</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I270" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16.8">
       <c r="A271" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B271" s="26" t="s">
+        <v>953</v>
+      </c>
+      <c r="C271" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="C271" s="6" t="s">
-        <v>955</v>
-      </c>
       <c r="D271" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E271" s="6">
         <v>1679</v>
@@ -21108,27 +21107,27 @@
         <v>503</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I271" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B272" s="27" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F272" s="2">
         <v>71</v>
@@ -21137,24 +21136,24 @@
         <v>805</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I272" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.8">
       <c r="A273" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B273" s="26" t="s">
+        <v>958</v>
+      </c>
+      <c r="C273" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="C273" s="6" t="s">
-        <v>960</v>
-      </c>
       <c r="D273" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E273" s="6">
         <v>3846</v>
@@ -21166,27 +21165,27 @@
         <v>246</v>
       </c>
       <c r="H273" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I273" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.8">
       <c r="A274" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B274" s="29" t="s">
+        <v>961</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="C274" s="2" t="s">
-        <v>963</v>
-      </c>
       <c r="D274" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F274" s="2">
         <v>171</v>
@@ -21195,24 +21194,24 @@
         <v>1172</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I274" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.8">
       <c r="A275" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B275" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>966</v>
-      </c>
       <c r="D275" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E275" s="6">
         <v>5752</v>
@@ -21224,24 +21223,24 @@
         <v>339</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I275" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B276" s="27" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E276" s="2">
         <v>2197</v>
@@ -21253,24 +21252,24 @@
         <v>176</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I276" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.8">
       <c r="A277" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B277" s="26" t="s">
+        <v>968</v>
+      </c>
+      <c r="C277" s="6" t="s">
         <v>969</v>
       </c>
-      <c r="C277" s="6" t="s">
-        <v>970</v>
-      </c>
       <c r="D277" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E277" s="6">
         <v>274</v>
@@ -21282,24 +21281,24 @@
         <v>23</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I277" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="19.8">
       <c r="A278" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B278" s="33" t="s">
+        <v>970</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="C278" s="2" t="s">
-        <v>972</v>
-      </c>
       <c r="D278" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E278" s="2">
         <v>224</v>
@@ -21311,24 +21310,24 @@
         <v>15</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I278" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.8">
       <c r="A279" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B279" s="26" t="s">
+        <v>972</v>
+      </c>
+      <c r="C279" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="C279" s="6" t="s">
-        <v>974</v>
-      </c>
       <c r="D279" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E279" s="6">
         <v>140</v>
@@ -21340,27 +21339,27 @@
         <v>22</v>
       </c>
       <c r="H279" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I279" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.8">
       <c r="A280" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B280" s="29" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F280" s="2">
         <v>193</v>
@@ -21369,24 +21368,24 @@
         <v>718</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I280" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.8">
       <c r="A281" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B281" s="26" t="s">
+        <v>976</v>
+      </c>
+      <c r="C281" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="C281" s="6" t="s">
-        <v>978</v>
-      </c>
       <c r="D281" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E281" s="6">
         <v>462</v>
@@ -21398,24 +21397,24 @@
         <v>59</v>
       </c>
       <c r="H281" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I281" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.8">
       <c r="A282" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B282" s="29" t="s">
+        <v>979</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>981</v>
-      </c>
       <c r="D282" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E282" s="2">
         <v>4506</v>
@@ -21427,24 +21426,24 @@
         <v>212</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I282" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B283" s="28" t="s">
+        <v>982</v>
+      </c>
+      <c r="C283" s="6" t="s">
         <v>983</v>
       </c>
-      <c r="C283" s="6" t="s">
-        <v>984</v>
-      </c>
       <c r="D283" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E283" s="6">
         <v>139</v>
@@ -21459,21 +21458,21 @@
         <v>3493</v>
       </c>
       <c r="I283" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.8">
       <c r="A284" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B284" s="29" t="s">
+        <v>984</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="C284" s="2" t="s">
-        <v>986</v>
-      </c>
       <c r="D284" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E284" s="2">
         <v>718</v>
@@ -21485,24 +21484,24 @@
         <v>31</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I284" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="16.8">
       <c r="A285" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B285" s="26" t="s">
+        <v>986</v>
+      </c>
+      <c r="C285" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="C285" s="6" t="s">
-        <v>988</v>
-      </c>
       <c r="D285" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E285" s="6">
         <v>119</v>
@@ -21517,21 +21516,21 @@
         <v>3900</v>
       </c>
       <c r="I285" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B286" s="27" t="s">
+        <v>988</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="C286" s="2" t="s">
-        <v>990</v>
-      </c>
       <c r="D286" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E286" s="2">
         <v>1016</v>
@@ -21543,27 +21542,27 @@
         <v>93</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I286" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.8">
       <c r="A287" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B287" s="26" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F287" s="6">
         <v>86</v>
@@ -21572,10 +21571,10 @@
         <v>579</v>
       </c>
       <c r="H287" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I287" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
